--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2072144.67177363</v>
+        <v>2050396.192031915</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184108.078182775</v>
+        <v>4184108.078182773</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8472502.853555078</v>
+        <v>8472502.85355508</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.59754090161527</v>
+        <v>299.8265913752296</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>203.1977700471482</v>
+        <v>180.5851733500022</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>153.1438055037648</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>191.2490250244963</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.1977700471482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0583697014118</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>36.8986321676559</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>272.3471683660306</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.78789945459279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>35.66783179869854</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>167.0871020271704</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>99.00641483895816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>32.37537859125309</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.5767416149971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>119.0033277132831</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>266.8321196145423</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.3192430966064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>209.6931219609837</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>10.74698963171072</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C28" t="n">
-        <v>61.99004373593782</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>362.5551860442877</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>64.82019709657247</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>155.6944474622197</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>317.7571317187197</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680972</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>143.7258919738303</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>39.29162778044686</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>87.84875757168729</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>289.3979806313351</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>217.9935592445846</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.6411865825811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>67.88571179025759</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>125.7998394252161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>21.25342755123788</v>
       </c>
       <c r="E40" t="n">
-        <v>6.380068175847859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.73768044679944</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>8.750814577928375</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>40.7069548508417</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>220.3091963090871</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>59.90320919298873</v>
+        <v>3.064569824648551</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1986.901740067215</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389511</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883005</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539434</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.24380226932</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.77804400824</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y11" t="n">
-        <v>2014.77804400824</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1722.044275313594</v>
+        <v>1744.88528207839</v>
       </c>
       <c r="U13" t="n">
-        <v>1722.044275313594</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.044275313594</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>934.5673701373257</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C14" t="n">
-        <v>934.5673701373257</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="D14" t="n">
-        <v>934.5673701373257</v>
+        <v>1047.26118400686</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3022.134319778188</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2768.603843052024</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2437.540955708454</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2084.772300438339</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>1711.306542177259</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>1321.167210201447</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5372,7 +5372,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5381,28 +5381,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E16" t="n">
         <v>624.6477645191717</v>
@@ -5433,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5442,46 +5442,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.044275313594</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>995.5569830750376</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.892666966215</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.892666966215</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D17" t="n">
-        <v>1357.626968359465</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
-        <v>971.8387157612206</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>560.8528109716131</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>145.7803608166095</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2866.097597267229</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2866.097597267229</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X17" t="n">
-        <v>2492.631839006149</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y17" t="n">
-        <v>2102.492507030337</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.0549803959802</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C19" t="n">
-        <v>310.0549803959802</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D19" t="n">
-        <v>310.0549803959802</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E19" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W19" t="n">
-        <v>845.4915543310558</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X19" t="n">
-        <v>617.5020034330385</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y19" t="n">
-        <v>396.7094242895083</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1561.13247157855</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C20" t="n">
-        <v>1561.13247157855</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D20" t="n">
-        <v>1202.866772971799</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="E20" t="n">
-        <v>817.078520373555</v>
+        <v>646.2728717542864</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>235.2869669646788</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>2324.737561815441</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>1951.271803554361</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.13247157855</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.9108438165264</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="C22" t="n">
-        <v>754.9746608886195</v>
+        <v>266.9173556748918</v>
       </c>
       <c r="D22" t="n">
-        <v>604.8580214762837</v>
+        <v>266.9173556748918</v>
       </c>
       <c r="E22" t="n">
-        <v>456.9449278938906</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5943,19 +5943,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W22" t="n">
-        <v>1134.594421205412</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X22" t="n">
-        <v>1134.594421205412</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.9108438165264</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1976.204921733553</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -5992,13 +5992,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>2739.810011970445</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W23" t="n">
-        <v>2739.810011970445</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.344253709365</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y23" t="n">
-        <v>1976.204921733553</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>553.2677753977071</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>384.3315924698002</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1886.568039910102</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1694.882155736929</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1473.115540306455</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1473.115540306455</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1473.115540306455</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>1183.698370269494</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>955.7088193714769</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.9162402279468</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>1104.381705680818</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>693.3958008912109</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>278.3233507362074</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V26" t="n">
-        <v>3108.772528910857</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W26" t="n">
-        <v>3108.772528910857</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X26" t="n">
-        <v>2735.306770649777</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y26" t="n">
-        <v>2345.167438673965</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.7508393439803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
         <v>66.51211643218342</v>
@@ -6417,19 +6417,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.157560278958</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>969.7403902419976</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>741.7508393439803</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.7508393439803</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1148.130683918831</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>779.1681669784198</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218343</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796418</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535338</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>1514.348043559526</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>944.7237329438971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
         <v>477.7578170212613</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1356.675339798491</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V31" t="n">
-        <v>1101.990851592604</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W31" t="n">
-        <v>944.7237329438971</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X31" t="n">
-        <v>944.7237329438971</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="Y31" t="n">
-        <v>944.7237329438971</v>
+        <v>1157.088627004002</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1938.906022842681</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1617.939223126803</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906803</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X32" t="n">
-        <v>2325.505862906803</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y32" t="n">
-        <v>2325.505862906803</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>669.4690763615333</v>
+        <v>820.4128495803448</v>
       </c>
       <c r="C34" t="n">
-        <v>500.5328934336264</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D34" t="n">
-        <v>350.4162540212907</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E34" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F34" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1326.59460854119</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>1071.910120335303</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>1071.910120335303</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X34" t="n">
-        <v>1071.910120335303</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y34" t="n">
-        <v>851.1175411917731</v>
+        <v>1002.061314410584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2222.416181075866</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C35" t="n">
-        <v>1853.453664135454</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D35" t="n">
-        <v>1495.187965528703</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>1109.399712930459</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>698.4138081408516</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2609.016021139988</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X35" t="n">
-        <v>2609.016021139988</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y35" t="n">
-        <v>2609.016021139988</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.2513404403938</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C37" t="n">
-        <v>361.3151575124869</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
         <v>66.51211643218342</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>1004.543667222019</v>
       </c>
       <c r="W37" t="n">
-        <v>880.2242361621296</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="X37" t="n">
-        <v>880.2242361621296</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y37" t="n">
-        <v>711.8998052706336</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1944.904841306683</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3257.034395558405</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3051.056647942627</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X38" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y38" t="n">
-        <v>1944.904841306683</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690276</v>
+        <v>816.0752021691753</v>
       </c>
       <c r="C40" t="n">
-        <v>72.95662974112065</v>
+        <v>647.1390192412684</v>
       </c>
       <c r="D40" t="n">
-        <v>72.95662974112065</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>1218.516246142945</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>997.7236669994151</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1278.332234886374</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C41" t="n">
-        <v>909.3697179459625</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>909.3697179459625</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>523.5814653477182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943747</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.608663915319</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1735.608663915319</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1659.057359339774</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>331.0435569190653</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7669,31 +7669,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V44" t="n">
-        <v>2788.565186649822</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.796531379708</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X44" t="n">
-        <v>2435.796531379708</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y44" t="n">
-        <v>2045.657199403896</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>463.6594280995014</v>
+        <v>850.493580837645</v>
       </c>
       <c r="C46" t="n">
-        <v>294.7232451715945</v>
+        <v>681.5573979097381</v>
       </c>
       <c r="D46" t="n">
-        <v>294.7232451715945</v>
+        <v>531.4407584974024</v>
       </c>
       <c r="E46" t="n">
-        <v>294.7232451715945</v>
+        <v>383.5276649150093</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297411</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029316</v>
+        <v>111.3760925029324</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570344</v>
+        <v>115.6728628570357</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411512</v>
+        <v>106.2279079411527</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950593</v>
+        <v>86.20968475950761</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449364</v>
+        <v>82.94423508449535</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470115</v>
+        <v>91.79185002470274</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337027</v>
+        <v>113.1917161337041</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283635</v>
+        <v>133.6616048283645</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131218</v>
+        <v>85.34276391131266</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932095911</v>
+        <v>66.92010932095994</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519126</v>
+        <v>43.19189982519237</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249744</v>
+        <v>30.85051777249873</v>
       </c>
       <c r="N3" t="n">
-        <v>17.1128523957716</v>
+        <v>17.11285239577292</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948062</v>
+        <v>38.09915424948183</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666465</v>
+        <v>50.10627990666562</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430166</v>
+        <v>83.9181518943023</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.2337924947683</v>
+        <v>86.23379249476881</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079266</v>
+        <v>80.14168867079329</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904562917</v>
+        <v>81.20697904562984</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595402</v>
+        <v>71.33916373595467</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235712</v>
+        <v>86.41153592235771</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315348</v>
+        <v>93.19451333315399</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321935</v>
+        <v>14.48187344321937</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.1363007618653</v>
+        <v>82.90725028825102</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>16.35117922902097</v>
+        <v>38.96377592616699</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>228.7865645684969</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>12.6689451151239</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>16.35117922902097</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.6512856876253</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>257.7091322196646</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>113.8907702900229</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.04408072734451</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>190.0418235903386</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>243.834623626283</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>250.2345538784548</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>114.0585840553161</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.00791173709769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>235.6797139073999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>60.92013885559265</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>48.61290957344093</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>84.91464242633674</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>317.0052688384242</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C28" t="n">
-        <v>105.25677736269</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.17865561919285</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0117830853648</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>130.8285508743713</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>47.51576005228782</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>181.1251564493158</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>23.52092912479756</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>107.1423348661223</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>277.4241341993203</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>121.5237450221183</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>34.14408407924341</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.94346676951372</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>41.30204999791825</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>260.4380992308375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>127.3620454669745</v>
       </c>
       <c r="E40" t="n">
-        <v>140.0538944707213</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.9961612166811</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>319.0014438922065</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>324.5659369201658</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>74.29856807823333</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>85.51783882994252</v>
+        <v>142.3564781982827</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>861941.3825855122</v>
+        <v>861941.3825855128</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691753.3013820385</v>
+        <v>691753.3013820386</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691753.3013820385</v>
+        <v>691753.3013820386</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691753.3013820385</v>
+        <v>691753.3013820387</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691753.3013820385</v>
+        <v>691753.3013820386</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691753.3013820386</v>
+        <v>691753.3013820385</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>691753.3013820387</v>
+        <v>691753.3013820385</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691753.3013820386</v>
+        <v>691753.3013820387</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691753.3013820386</v>
+        <v>691753.3013820385</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691753.3013820386</v>
+        <v>691753.3013820387</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614506.2596228727</v>
+        <v>614506.2596228721</v>
       </c>
       <c r="C2" t="n">
         <v>614513.6012469289</v>
@@ -26322,7 +26322,7 @@
         <v>614519.845171983</v>
       </c>
       <c r="E2" t="n">
-        <v>511495.6484563806</v>
+        <v>511495.648456381</v>
       </c>
       <c r="F2" t="n">
         <v>511495.6484563808</v>
@@ -26337,25 +26337,25 @@
         <v>511495.6484563808</v>
       </c>
       <c r="J2" t="n">
-        <v>511495.6484563808</v>
+        <v>511495.6484563807</v>
       </c>
       <c r="K2" t="n">
         <v>511495.6484563808</v>
       </c>
       <c r="L2" t="n">
-        <v>511495.6484563808</v>
+        <v>511495.6484563809</v>
       </c>
       <c r="M2" t="n">
-        <v>511495.6484563808</v>
+        <v>511495.6484563807</v>
       </c>
       <c r="N2" t="n">
-        <v>511495.6484563808</v>
+        <v>511495.6484563809</v>
       </c>
       <c r="O2" t="n">
+        <v>511495.6484563807</v>
+      </c>
+      <c r="P2" t="n">
         <v>511495.6484563809</v>
-      </c>
-      <c r="P2" t="n">
-        <v>511495.6484563808</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190611</v>
+        <v>196760.0786190588</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598084</v>
+        <v>27855.40645598298</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>914243.4502001542</v>
+        <v>914243.4502001547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920728</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378259.3928997738</v>
+        <v>378259.3928997744</v>
       </c>
       <c r="C4" t="n">
         <v>370434.2549872373</v>
@@ -26426,16 +26426,16 @@
         <v>364025.9487187511</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710381</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.34706710381</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="G4" t="n">
         <v>10380.34706710378</v>
       </c>
       <c r="H4" t="n">
-        <v>10380.34706710375</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="I4" t="n">
         <v>10380.34706710378</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598084</v>
+        <v>38078.94064598078</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26478,16 +26478,16 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1407.847458057033</v>
+        <v>1365.345198880126</v>
       </c>
       <c r="C6" t="n">
-        <v>177478.1349725641</v>
+        <v>177435.8774341859</v>
       </c>
       <c r="D6" t="n">
-        <v>188900.1649665342</v>
+        <v>188858.1155589932</v>
       </c>
       <c r="E6" t="n">
-        <v>-487434.4893722706</v>
+        <v>-490910.6786703318</v>
       </c>
       <c r="F6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298228</v>
       </c>
       <c r="G6" t="n">
-        <v>426808.9608278833</v>
+        <v>423332.7715298227</v>
       </c>
       <c r="H6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298227</v>
       </c>
       <c r="I6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298227</v>
       </c>
       <c r="J6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298226</v>
       </c>
       <c r="K6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298227</v>
       </c>
       <c r="L6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298227</v>
       </c>
       <c r="M6" t="n">
-        <v>219620.3925358109</v>
+        <v>216144.2032377497</v>
       </c>
       <c r="N6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298227</v>
       </c>
       <c r="O6" t="n">
-        <v>426808.9608278838</v>
+        <v>423332.7715298226</v>
       </c>
       <c r="P6" t="n">
-        <v>426808.9608278837</v>
+        <v>423332.7715298227</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890292</v>
+        <v>204.1899378890268</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890292</v>
+        <v>204.1899378890268</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696504</v>
+        <v>30.59010023696739</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>828.980308075833</v>
+        <v>828.9803080758335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>331.0681279392605</v>
+        <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378761</v>
+        <v>178.8295274378764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.3055151836754</v>
+        <v>98.30551518367599</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474664</v>
+        <v>190.3146295474667</v>
       </c>
       <c r="T2" t="n">
         <v>219.5025170893204</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.9043161647323</v>
+        <v>136.9043161647324</v>
       </c>
       <c r="H3" t="n">
         <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661433</v>
+        <v>74.2750195266145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361391</v>
+        <v>72.88884584361422</v>
       </c>
       <c r="S3" t="n">
-        <v>163.5252051891205</v>
+        <v>163.5252051891206</v>
       </c>
       <c r="T3" t="n">
         <v>198.3944404597271</v>
@@ -27557,10 +27557,10 @@
         <v>158.9534387491532</v>
       </c>
       <c r="I4" t="n">
-        <v>144.3773550168171</v>
+        <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383704</v>
+        <v>67.32663672383734</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045099</v>
+        <v>55.32936263045134</v>
       </c>
       <c r="R4" t="n">
-        <v>160.7372695280033</v>
+        <v>160.7372695280035</v>
       </c>
       <c r="S4" t="n">
-        <v>217.5996781856072</v>
+        <v>217.5996781856073</v>
       </c>
       <c r="T4" t="n">
         <v>226.3723226937267</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156944</v>
+        <v>0.820864071915685</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506607</v>
+        <v>8.406674176506511</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252984</v>
+        <v>31.64636213252948</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375473</v>
+        <v>69.66981202375393</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879461</v>
+        <v>104.4169881879449</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288361</v>
+        <v>129.5385070288346</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677668</v>
+        <v>144.1365484677651</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120973</v>
+        <v>146.4688285120956</v>
       </c>
       <c r="O2" t="n">
-        <v>138.3063613969856</v>
+        <v>138.306361396984</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215668</v>
+        <v>118.0412796215655</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608602</v>
+        <v>88.64408504608498</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747429</v>
+        <v>51.5636027574737</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877891</v>
+        <v>18.70544003877869</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810954</v>
+        <v>3.593332474810913</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325555</v>
+        <v>0.06566912575325479</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782891</v>
+        <v>0.4392009984782841</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619267</v>
+        <v>4.241757011619217</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480075</v>
+        <v>15.12161332480057</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535451</v>
+        <v>41.49486275535403</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339988</v>
+        <v>70.92132965339906</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468293</v>
+        <v>95.36247995468182</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495209</v>
+        <v>111.2835161495196</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875617</v>
+        <v>114.2288596875604</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949638</v>
+        <v>104.4970901949626</v>
       </c>
       <c r="P3" t="n">
-        <v>83.86812750766559</v>
+        <v>83.86812750766462</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171986</v>
+        <v>56.06362219171921</v>
       </c>
       <c r="R3" t="n">
-        <v>27.26898830902923</v>
+        <v>27.26898830902891</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717339</v>
+        <v>8.157965914717245</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094507</v>
+        <v>1.770288235094486</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0288948025314664</v>
+        <v>0.02889480253146607</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064459</v>
+        <v>0.3682113634064417</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286404</v>
+        <v>3.273733758286366</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044112</v>
+        <v>11.073119910441</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283573</v>
+        <v>26.03254339283543</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576708</v>
+        <v>42.77946567576658</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044562</v>
+        <v>54.74298761044499</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197589</v>
+        <v>57.71880490197522</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927918</v>
+        <v>56.34638072927852</v>
       </c>
       <c r="O4" t="n">
-        <v>52.04500252948567</v>
+        <v>52.04500252948507</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599414</v>
+        <v>44.53349071599362</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.8326806212434</v>
+        <v>30.83268062124305</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916619</v>
+        <v>16.556121849166</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851365061</v>
+        <v>6.416919851364987</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554814</v>
+        <v>1.573266734554796</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580617</v>
+        <v>0.02008425618580593</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32107,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32156,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32174,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34146,7 +34146,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
         <v>629.9949819746414</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34389,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38037,7 +38037,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
